--- a/xlsx/智能手机_intext.xlsx
+++ b/xlsx/智能手机_intext.xlsx
@@ -29,7 +29,7 @@
     <t>移动操作系统</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_智能手机</t>
+    <t>政策_政策_维基百科_智能手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E8%BD%AF%E4%BB%B6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能手機</t>
+    <t>功能手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E6%90%BA%E5%BC%8F%E5%AA%92%E4%BD%93%E6%92%AD%E6%94%BE%E5%99%A8</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%BE%A8%E7%8E%87</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81</t>
   </si>
   <si>
-    <t>網頁</t>
+    <t>网页</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>鍵盤</t>
+    <t>键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MP3</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Windows_Phone</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
+    <t>三星电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E7%AB%AF%E9%81%8B%E7%AE%97</t>
   </si>
   <si>
-    <t>雲端運算</t>
+    <t>云端运算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E7%BD%91%E6%9C%AC</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E4%BD%A0%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>迷你桌上型電腦</t>
+    <t>迷你桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP_OnDemand_Solutions</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>亞馬遜網路服務系統</t>
+    <t>亚马逊网路服务系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Amazon_EC2</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E9%9B%B2%E7%AB%AF%E5%B9%B3%E5%8F%B0</t>
   </si>
   <si>
-    <t>Google雲端平台</t>
+    <t>Google云端平台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eucalyptus</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E6%9C%8D%E5%8B%99%E5%8C%96</t>
   </si>
   <si>
-    <t>軟體服務化</t>
+    <t>软体服务化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8F%B0%E6%9C%8D%E5%8B%99%E5%8C%96</t>
   </si>
   <si>
-    <t>平台服務化</t>
+    <t>平台服务化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E6%9E%B6%E6%A7%8B%E6%9C%8D%E5%8B%99%E5%8C%96</t>
   </si>
   <si>
-    <t>基礎架構服務化</t>
+    <t>基础架构服务化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%8D%B3%E6%9C%8D%E5%8A%A1</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>分散式檔案系統</t>
+    <t>分散式档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E4%BB%B6%E8%99%9A%E6%8B%9F%E5%8C%96</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%A7%9F%E6%88%B6%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>多租戶技術</t>
+    <t>多租户技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A7%81%E6%9C%89%E9%9B%B2</t>
   </si>
   <si>
-    <t>虛擬私有雲</t>
+    <t>虚拟私有云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>微服務</t>
+    <t>微服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ajax</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/Atom_(%E6%A8%99%E6%BA%96)</t>
   </si>
   <si>
-    <t>Atom (標準)</t>
+    <t>Atom (标准)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTML5</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>Template talk-行動作業系統</t>
+    <t>Template talk-行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E5%86%85%E6%A0%B8</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E9%9B%B2OS</t>
   </si>
   <si>
-    <t>百度雲OS</t>
+    <t>百度云OS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIUI</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/Windows_10%E8%A1%8C%E5%8B%95%E7%89%88</t>
   </si>
   <si>
-    <t>Windows 10行動版</t>
+    <t>Windows 10行动版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BlackBerry_OS</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/PlayStation_Portable%E7%B3%BB%E7%B5%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>PlayStation Portable系統軟體</t>
+    <t>PlayStation Portable系统软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PlayStation_Vita%E7%B3%BB%E7%BB%9F%E8%BD%AF%E4%BB%B6</t>
@@ -965,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E5%B9%B3%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>行動軟體發行平台列表</t>
+    <t>行动软体发行平台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%89%8B%E6%A9%9F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放手機聯盟</t>
+    <t>开放手机联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%BB%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放移動聯盟</t>
+    <t>开放移动联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_application_development</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E8%A8%8A</t>
   </si>
   <si>
-    <t>簡訊</t>
+    <t>简讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E7%9F%AD%E8%A8%8A</t>
   </si>
   <si>
-    <t>多媒體短訊</t>
+    <t>多媒体短讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_phone_spam</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%95%86%E5%8B%99</t>
   </si>
   <si>
-    <t>行動商務</t>
+    <t>行动商务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_instant_messaging</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>行動學習</t>
+    <t>行动学习</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_local_search</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>竊聽</t>
+    <t>窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%90%A5%E9%94%80</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E6%94%AF%E4%BB%98</t>
   </si>
   <si>
-    <t>行動支付</t>
+    <t>行动支付</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Push_email</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%90%8A%E9%A3%BE</t>
   </si>
   <si>
-    <t>手機吊飾</t>
+    <t>手机吊饰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_comic</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%89%8B%E6%A9%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>日本手機文化</t>
+    <t>日本手机文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA%E5%B0%8F%E8%AF%B4</t>
@@ -1163,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>手機廣告</t>
+    <t>手机广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%AE%BE%E5%A4%87</t>
@@ -1181,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能型手機</t>
+    <t>功能型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E6%9C%BA%E6%89%8B%E6%9C%BA</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>手機規格</t>
+    <t>手机规格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comparison_of_smartphones</t>
@@ -1253,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>電話竊聽</t>
+    <t>电话窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/992_(%E7%B7%8A%E6%80%A5%E7%9F%AD%E8%A8%8A%E6%B1%82%E5%8A%A9)</t>
   </si>
   <si>
-    <t>992 (緊急短訊求助)</t>
+    <t>992 (紧急短讯求助)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%81%93%E5%AE%B9%E9%87%8F</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -1457,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_computing</t>
@@ -1469,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>桌上型電腦</t>
+    <t>桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E7%AB%99</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%AB%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電競電腦</t>
+    <t>电竞电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E7%94%B5%E8%84%91</t>
@@ -1493,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%AB%94%E6%A9%9F</t>
   </si>
   <si>
-    <t>一體機</t>
+    <t>一体机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Small_form_factor</t>
@@ -1505,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E8%A8%98%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>筆記型電腦</t>
+    <t>笔记型电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Desktop_replacement_computer</t>
@@ -1529,13 +1529,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%A5%B5%E8%87%B4%E7%AD%86%E9%9B%BB</t>
   </si>
   <si>
-    <t>超極致筆電</t>
+    <t>超极致笔电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_tablet</t>
@@ -1583,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%94%9C%E5%BC%8F%E5%AA%92%E9%AB%94%E6%92%AD%E6%94%BE%E5%99%A8</t>
   </si>
   <si>
-    <t>可攜式媒體播放器</t>
+    <t>可携式媒体播放器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E5%99%A8</t>
@@ -1613,13 +1613,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%A9%BF%E6%88%B4%E5%BC%8F%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>可穿戴式電腦</t>
+    <t>可穿戴式电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>手錶</t>
+    <t>手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Calculator_watch</t>
@@ -1631,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>智慧型手錶</t>
+    <t>智慧型手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virtual_retinal_display</t>
@@ -1643,19 +1643,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%88%B4%E5%BC%8F%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>頭戴式顯示器</t>
+    <t>头戴式显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AC%E9%A0%AD%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>抬頭顯示器</t>
+    <t>抬头显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子遊戲機</t>
+    <t>电子游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA</t>
@@ -1685,19 +1685,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>掌上遊戲機</t>
+    <t>掌上游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>智能電視</t>
+    <t>智能电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>家庭劇院個人電腦</t>
+    <t>家庭剧院个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%A1%B6%E7%9B%92</t>
@@ -1715,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E6%A9%9F%E5%8F%B0</t>
   </si>
   <si>
-    <t>多媒體機台</t>
+    <t>多媒体机台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A8%E6%9F%9C%E5%91%98%E6%9C%BA</t>
@@ -1733,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8%E9%96%B1%E8%AE%80%E5%99%A8</t>
   </si>
   <si>
-    <t>電子書閱讀器</t>
+    <t>电子书阅读器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portable_data_terminal</t>
@@ -1781,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E5%BE%AE%E5%A1%B5</t>
   </si>
   <si>
-    <t>智能微塵</t>
+    <t>智能微尘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E6%84%9F%E6%B8%AC%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線感測網路</t>
+    <t>无线感测网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
@@ -1817,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BD%91%E7%BB%9C</t>
@@ -1841,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Heliograph</t>
@@ -1865,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_mobile_phones</t>
@@ -1877,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光通訊</t>
+    <t>光通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semaphore_line</t>
@@ -1943,25 +1943,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>視訊會議</t>
+    <t>视讯会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>視訊電話</t>
+    <t>视讯电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -1997,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claude_Chappe</t>
@@ -2015,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BF%A1%E9%81%94</t>
   </si>
   <si>
-    <t>范信達</t>
+    <t>范信达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elisha_Gray</t>
@@ -2081,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8B%93%E6%92%B2</t>
   </si>
   <si>
-    <t>網絡拓撲</t>
+    <t>网络拓扑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_link</t>
@@ -2111,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free-space_optical_communication</t>
@@ -2123,19 +2123,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B0%8E%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>光導纖維</t>
+    <t>光导纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%A0%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>無線電頻譜</t>
+    <t>无线电频谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%B7%9A</t>
   </si>
   <si>
-    <t>電話線</t>
+    <t>电话线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -2153,19 +2153,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>電信交換</t>
+    <t>电信交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E6%8F%9B%E5%99%A8</t>
   </si>
   <si>
-    <t>網路交換器</t>
+    <t>网路交换器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%B7%AF%E5%A4%8D%E7%94%A8</t>
@@ -2249,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISDN</t>
@@ -2261,13 +2261,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E4%B8%80%E4%BB%A3%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>下一代網絡</t>
+    <t>下一代网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPL_network</t>
@@ -2285,19 +2285,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>通訊裝置</t>
+    <t>通讯装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telex</t>
@@ -2309,25 +2309,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線網路</t>
+    <t>无线网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2351,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
